--- a/emotions/adfes_results.xlsx
+++ b/emotions/adfes_results.xlsx
@@ -478,13 +478,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9767441860465117</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -613,13 +613,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9268292682926829</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.888888888888889</v>
+        <v>0.88</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         <v>0.9268292682926829</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9268292682926829</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -772,16 +772,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.888888888888889</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>0.9565217391304348</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -856,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9767441860465117</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -883,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D19" t="n">
         <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>0.8444444444444444</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>0.9361702127659575</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9767441860465117</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>0.9565217391304348</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1126,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>

--- a/emotions/adfes_results.xlsx
+++ b/emotions/adfes_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\my-study-python\emotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F19D7-182E-4A9C-AB5B-135AB9BD87A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96644124-92BF-4536-9228-D6E298899FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -152,6 +152,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,9 +461,9 @@
       <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -505,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -528,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -551,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -620,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,7 +667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -689,7 +690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -712,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -735,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -758,7 +759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -781,7 +782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -804,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -827,7 +828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -850,7 +851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -873,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -896,7 +897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -919,7 +920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -942,7 +943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -965,7 +966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -988,7 +989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1064,23 +1065,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C92DC6D-BB09-4D30-BF4E-D39F3CD122B2}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="19.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="2"/>
-    <col min="11" max="12" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="8.90625" style="2"/>
+    <col min="9" max="9" width="19.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" style="2"/>
+    <col min="11" max="12" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="8.7265625" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1121,7 @@
       </c>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1161,8 +1163,12 @@
         <v>65.454545454545453</v>
       </c>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="5">
+        <f>$N$26-N2</f>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1204,8 +1210,12 @@
         <v>65.454545454545453</v>
       </c>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P26" si="2">$N$26-N3</f>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1247,8 +1257,12 @@
         <v>65.454545454545453</v>
       </c>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1290,8 +1304,12 @@
         <v>65.454545454545453</v>
       </c>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1333,8 +1351,12 @@
         <v>65.454545454545453</v>
       </c>
       <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1376,8 +1398,12 @@
         <v>70.909090909090907</v>
       </c>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1419,8 +1445,12 @@
         <v>70.909090909090907</v>
       </c>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1462,8 +1492,12 @@
         <v>70.909090909090907</v>
       </c>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1505,8 +1539,12 @@
         <v>70.909090909090907</v>
       </c>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1548,8 +1586,12 @@
         <v>70.909090909090907</v>
       </c>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1591,8 +1633,12 @@
         <v>72.727272727272734</v>
       </c>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.818181818181813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1634,8 +1680,12 @@
         <v>72.727272727272734</v>
       </c>
       <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.818181818181813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1677,8 +1727,12 @@
         <v>72.727272727272734</v>
       </c>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.818181818181813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1720,8 +1774,12 @@
         <v>72.727272727272734</v>
       </c>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" s="5">
+        <f t="shared" si="2"/>
+        <v>1.818181818181813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1763,8 +1821,12 @@
         <v>72.727272727272734</v>
       </c>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.818181818181813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1806,8 +1868,12 @@
         <v>73.636363636363626</v>
       </c>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90909090909092072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1837,20 +1903,24 @@
         <v>95.454545454545453</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" ref="L18:L26" si="2">C18*100</f>
+        <f t="shared" ref="L18:L26" si="3">C18*100</f>
         <v>95.454545454545453</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18:M26" si="3">D18*100</f>
+        <f t="shared" ref="M18:M26" si="4">D18*100</f>
         <v>95.454545454545453</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18:N26" si="4">E18*100</f>
+        <f t="shared" ref="N18:N26" si="5">E18*100</f>
         <v>73.636363636363626</v>
       </c>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90909090909092072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1880,20 +1950,24 @@
         <v>94.73684210526315</v>
       </c>
       <c r="L19" s="4">
+        <f t="shared" si="3"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="4"/>
+        <v>87.804878048780495</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="5"/>
+        <v>73.636363636363626</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="5">
         <f t="shared" si="2"/>
-        <v>81.818181818181827</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="3"/>
-        <v>87.804878048780495</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="4"/>
-        <v>73.636363636363626</v>
-      </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.90909090909092072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1923,20 +1997,24 @@
         <v>82.608695652173907</v>
       </c>
       <c r="L20" s="4">
+        <f t="shared" si="3"/>
+        <v>86.36363636363636</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="4"/>
+        <v>84.444444444444443</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="5"/>
+        <v>73.636363636363626</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="5">
         <f t="shared" si="2"/>
-        <v>86.36363636363636</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="3"/>
-        <v>84.444444444444443</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="4"/>
-        <v>73.636363636363626</v>
-      </c>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.90909090909092072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1966,20 +2044,24 @@
         <v>88</v>
       </c>
       <c r="L21" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="4"/>
+        <v>93.61702127659575</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="5"/>
+        <v>73.636363636363626</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="5">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="3"/>
-        <v>93.61702127659575</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="4"/>
-        <v>73.636363636363626</v>
-      </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.90909090909092072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -2009,20 +2091,24 @@
         <v>100</v>
       </c>
       <c r="L22" s="4">
+        <f t="shared" si="3"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="4"/>
+        <v>95.238095238095227</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="5"/>
+        <v>74.545454545454547</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="5">
         <f t="shared" si="2"/>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" si="3"/>
-        <v>95.238095238095227</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="4"/>
-        <v>74.545454545454547</v>
-      </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -2052,20 +2138,24 @@
         <v>91.304347826086953</v>
       </c>
       <c r="L23" s="4">
+        <f t="shared" si="3"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="4"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="5"/>
+        <v>74.545454545454547</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="5">
         <f t="shared" si="2"/>
-        <v>95.454545454545453</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="3"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="4"/>
-        <v>74.545454545454547</v>
-      </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2095,20 +2185,24 @@
         <v>95.454545454545453</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="2"/>
-        <v>95.454545454545453</v>
-      </c>
-      <c r="M24" s="4">
         <f t="shared" si="3"/>
         <v>95.454545454545453</v>
       </c>
+      <c r="M24" s="4">
+        <f t="shared" si="4"/>
+        <v>95.454545454545453</v>
+      </c>
       <c r="N24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.545454545454547</v>
       </c>
       <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2138,20 +2232,24 @@
         <v>91.666666666666657</v>
       </c>
       <c r="L25" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="4"/>
+        <v>95.652173913043484</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="5"/>
+        <v>74.545454545454547</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="5">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="3"/>
-        <v>95.652173913043484</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="4"/>
-        <v>74.545454545454547</v>
-      </c>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -2181,18 +2279,22 @@
         <v>100</v>
       </c>
       <c r="L26" s="4">
+        <f t="shared" si="3"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="4"/>
+        <v>97.674418604651166</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="5"/>
+        <v>74.545454545454547</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="5">
         <f t="shared" si="2"/>
-        <v>95.454545454545453</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="3"/>
-        <v>97.674418604651166</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="4"/>
-        <v>74.545454545454547</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
